--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frandeen\Documents\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6112C4D-D8D3-443E-8F91-A029D316B6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022A443-E15A-4B16-86C5-846625504A9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="770" yWindow="770" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
@@ -37,16 +37,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -491,20 +481,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -512,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -520,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -528,7 +518,7 @@
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -553,25 +543,25 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -615,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -634,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frandeen\Documents\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022A443-E15A-4B16-86C5-846625504A9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CD76B-D004-48F5-81E7-B76614A6FA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="770" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frandeen\Documents\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CD76B-D004-48F5-81E7-B76614A6FA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6A7EF-BDE4-45A2-8449-897652906AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="770" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
@@ -17,15 +17,22 @@
     <sheet name="Gearbox Tests" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="AIR_NUT">'Gearbox Tests'!$C$9</definedName>
+    <definedName name="AIR_NUT.point">'Gearbox Tests'!$C$9:$E$9</definedName>
     <definedName name="Date_range">'Gearbox Tests'!$A$3</definedName>
-    <definedName name="DIPSTICK">'Gearbox Tests'!$C$8</definedName>
+    <definedName name="DIPSTICK.angle">'Gearbox Tests'!$C$8</definedName>
     <definedName name="FASTENERS.mass">'Gearbox Tests'!$C$6</definedName>
     <definedName name="float_range">'Gearbox Tests'!$A$2</definedName>
     <definedName name="GEARS.mass">'Gearbox Tests'!$C$7</definedName>
     <definedName name="HOUSING.mass">'Gearbox Tests'!$C$5</definedName>
+    <definedName name="HOUSING.moments_of_inertia_centroidal.0">'Gearbox Tests'!$C$17</definedName>
+    <definedName name="HOUSING.moments_of_inertia_centroidal.1">'Gearbox Tests'!$C$18</definedName>
+    <definedName name="HOUSING.moments_of_inertia_centroidal.2">'Gearbox Tests'!$C$19</definedName>
     <definedName name="missing_ref">'Other Tests'!#REF!</definedName>
     <definedName name="SHAFT_CENTERS">'Gearbox Tests'!$C$10</definedName>
+    <definedName name="SHAFT_CENTERS.distance">'Gearbox Tests'!$C$10</definedName>
+    <definedName name="SHAFT_CENTERS.point_1.x">'Gearbox Tests'!$C$11</definedName>
+    <definedName name="SHAFT_CENTERS.point_1.y">'Gearbox Tests'!$C$12</definedName>
+    <definedName name="SHAFT_CENTERS.point_1.z">'Gearbox Tests'!$C$13</definedName>
     <definedName name="SURFACE_PAINTED.area">'Gearbox Tests'!$C$4</definedName>
     <definedName name="Test_Date">'Other Tests'!$B$5</definedName>
     <definedName name="Test_Float">'Other Tests'!$B$4</definedName>
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Because spreadsheets need dark mode too!</t>
   </si>
@@ -100,6 +107,27 @@
   </si>
   <si>
     <t>TEST VALUES -- DO NOT MODIFY</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>HOUSING MOI</t>
+  </si>
+  <si>
+    <t>MXX</t>
+  </si>
+  <si>
+    <t>MYY</t>
+  </si>
+  <si>
+    <t>MZZ</t>
   </si>
 </sst>
 </file>
@@ -537,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54907CF9-C14B-4766-B22F-13A5988C480B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,18 +578,18 @@
     <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -572,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -583,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -594,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -616,23 +644,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>159.99999999999989</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>899.99999999999909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>865.63897914069571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>261.00000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2734036.863510197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3833609.1842077454</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4349785.7993760025</v>
       </c>
     </row>
   </sheetData>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frandeen\Documents\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C6A7EF-BDE4-45A2-8449-897652906AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C7790D-1014-4A94-BE5B-B2504361BB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="770" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
@@ -24,9 +24,11 @@
     <definedName name="float_range">'Gearbox Tests'!$A$2</definedName>
     <definedName name="GEARS.mass">'Gearbox Tests'!$C$7</definedName>
     <definedName name="HOUSING.mass">'Gearbox Tests'!$C$5</definedName>
+    <definedName name="HOUSING.moments_of_inertia_centroidal">'Gearbox Tests'!$C$17:$C$19</definedName>
     <definedName name="HOUSING.moments_of_inertia_centroidal.0">'Gearbox Tests'!$C$17</definedName>
     <definedName name="HOUSING.moments_of_inertia_centroidal.1">'Gearbox Tests'!$C$18</definedName>
     <definedName name="HOUSING.moments_of_inertia_centroidal.2">'Gearbox Tests'!$C$19</definedName>
+    <definedName name="HOUSING.products_of_inertia_centroidal">'Gearbox Tests'!$C$22:$C$24</definedName>
     <definedName name="missing_ref">'Other Tests'!#REF!</definedName>
     <definedName name="SHAFT_CENTERS">'Gearbox Tests'!$C$10</definedName>
     <definedName name="SHAFT_CENTERS.distance">'Gearbox Tests'!$C$10</definedName>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Because spreadsheets need dark mode too!</t>
   </si>
@@ -128,6 +130,18 @@
   </si>
   <si>
     <t>MZZ</t>
+  </si>
+  <si>
+    <t>HOUSING POI</t>
+  </si>
+  <si>
+    <t>PXY</t>
+  </si>
+  <si>
+    <t>PXZ</t>
+  </si>
+  <si>
+    <t>PYZ</t>
   </si>
 </sst>
 </file>
@@ -565,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54907CF9-C14B-4766-B22F-13A5988C480B}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,13 +663,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -698,28 +712,57 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1">
-        <v>2734036.863510197</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>3833609.1842077454</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>4349785.7993760025</v>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-8350.6714059345395</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-48498.809284873329</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>26209.492442448263</v>
       </c>
     </row>
   </sheetData>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frandeen\Documents\datum\tests\xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C7790D-1014-4A94-BE5B-B2504361BB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F572912A-A15B-4DEC-AADF-688CF9223D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="770" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
@@ -523,20 +523,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
-    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -552,7 +552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -560,7 +560,7 @@
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -585,25 +585,25 @@
       <selection activeCell="C22" sqref="C22:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -672,7 +672,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -691,7 +691,7 @@
         <v>899.99999999999909</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -699,7 +699,7 @@
         <v>865.63897914069571</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -707,12 +707,12 @@
         <v>261.00000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -736,12 +736,12 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -749,7 +749,7 @@
         <v>-8350.6714059345395</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -757,7 +757,7 @@
         <v>-48498.809284873329</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frandeen\Documents\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F572912A-A15B-4DEC-AADF-688CF9223D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79811C-DE01-4F77-AD28-A1B22D277B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="770" yWindow="770" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
@@ -523,20 +523,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -552,7 +552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -560,7 +560,7 @@
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -585,25 +585,25 @@
       <selection activeCell="C22" sqref="C22:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -672,7 +672,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -691,7 +691,7 @@
         <v>899.99999999999909</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -699,7 +699,7 @@
         <v>865.63897914069571</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -707,12 +707,12 @@
         <v>261.00000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -736,12 +736,12 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -749,7 +749,7 @@
         <v>-8350.6714059345395</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -757,7 +757,7 @@
         <v>-48498.809284873329</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frandeen\Documents\datum\tests\xl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79811C-DE01-4F77-AD28-A1B22D277B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6C5CF-F936-4A31-AAB2-BB5AAC1A1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="770" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
     <sheet name="Gearbox Tests" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="AIR_NUT.point">'Gearbox Tests'!$C$9:$E$9</definedName>
+    <definedName name="AIR_NUT.point_1">'Gearbox Tests'!$C$9:$E$9</definedName>
     <definedName name="Date_range">'Gearbox Tests'!$A$3</definedName>
     <definedName name="DIPSTICK.angle">'Gearbox Tests'!$C$8</definedName>
     <definedName name="FASTENERS.mass">'Gearbox Tests'!$C$6</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Because spreadsheets need dark mode too!</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>deg</t>
-  </si>
-  <si>
-    <t>mm</t>
   </si>
   <si>
     <t>Kivo is a dork</t>
@@ -523,46 +520,46 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
-    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>44682</v>
@@ -581,29 +578,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54907CF9-C14B-4766-B22F-13A5988C480B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -636,29 +633,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>54.455593060061851</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -672,94 +669,97 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>159.99999999999989</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="1">
+        <v>925.99999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>439.08443537387728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>899.99999999999909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>865.63897914069571</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>261.00000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>-8350.6714059345395</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>-48498.809284873329</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>26209.492442448263</v>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6C5CF-F936-4A31-AAB2-BB5AAC1A1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7500AC3-68E3-4ADD-9BC0-67893599017E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9960" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15410" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
@@ -520,20 +520,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -557,7 +557,7 @@
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -582,25 +582,25 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -622,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,29 +633,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>54.455593060061851</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,7 +669,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -680,18 +680,18 @@
         <v>925.99999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>899.99999999999909</v>
       </c>
       <c r="D11" s="1">
         <v>439.08443537387728</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -699,7 +699,7 @@
         <v>865.63897914069571</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -707,12 +707,12 @@
         <v>261.00000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -736,12 +736,12 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -749,7 +749,7 @@
         <v>-8350.6714059345395</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
@@ -757,7 +757,7 @@
         <v>-48498.809284873329</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7500AC3-68E3-4ADD-9BC0-67893599017E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814CA5D-9A12-4C7C-9E6A-2E8A1E550375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15410" firstSheet="1" activeTab="1" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="20380" yWindow="1820" windowWidth="16460" windowHeight="15170" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="HOUSING.moments_of_inertia_centroidal.2">'Gearbox Tests'!$C$19</definedName>
     <definedName name="HOUSING.products_of_inertia_centroidal">'Gearbox Tests'!$C$22:$C$24</definedName>
     <definedName name="missing_ref">'Other Tests'!#REF!</definedName>
+    <definedName name="Range_that_s_too_large">'Other Tests'!$A$7:$H$9</definedName>
     <definedName name="SHAFT_CENTERS">'Gearbox Tests'!$C$10</definedName>
     <definedName name="SHAFT_CENTERS.distance">'Gearbox Tests'!$C$10</definedName>
     <definedName name="SHAFT_CENTERS.point_1.x">'Gearbox Tests'!$C$11</definedName>
@@ -41,6 +42,7 @@
     <definedName name="Test_Int">'Other Tests'!$B$2</definedName>
     <definedName name="Test_Range_1">'Gearbox Tests'!$A$1</definedName>
     <definedName name="Test_Str">'Other Tests'!$B$3</definedName>
+    <definedName name="too_small_range">'Other Tests'!$A$12:$B$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Because spreadsheets need dark mode too!</t>
   </si>
@@ -139,13 +141,19 @@
   </si>
   <si>
     <t>PYZ</t>
+  </si>
+  <si>
+    <t>Range that's too large</t>
+  </si>
+  <si>
+    <t>Range that's too small</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +168,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +196,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,13 +221,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F223915-F445-4D32-BCC2-8C7735AB3DA4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,13 +558,13 @@
     <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -541,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -549,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -557,13 +588,51 @@
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>44682</v>
       </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -578,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54907CF9-C14B-4766-B22F-13A5988C480B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814CA5D-9A12-4C7C-9E6A-2E8A1E550375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCAC470-9774-432F-A71E-C3603B8EA4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="1820" windowWidth="16460" windowHeight="15170" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="26720" yWindow="2850" windowWidth="11040" windowHeight="14490" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
@@ -225,12 +225,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F223915-F445-4D32-BCC2-8C7735AB3DA4}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,13 +558,13 @@
     <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -572,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -588,7 +588,7 @@
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -596,43 +596,49 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCAC470-9774-432F-A71E-C3603B8EA4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D475FCF8-27E2-4E6B-A1C6-E22C9A3CCAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26720" yWindow="2850" windowWidth="11040" windowHeight="14490" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="17440" windowHeight="12410" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
   <sheets>
     <sheet name="Other Tests" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="AIR_NUT.point_1">'Gearbox Tests'!$C$9:$E$9</definedName>
     <definedName name="Date_range">'Gearbox Tests'!$A$3</definedName>
     <definedName name="DIPSTICK.angle">'Gearbox Tests'!$C$8</definedName>
+    <definedName name="Empty_Range">'Other Tests'!$B$6</definedName>
     <definedName name="FASTENERS.mass">'Gearbox Tests'!$C$6</definedName>
     <definedName name="float_range">'Gearbox Tests'!$A$2</definedName>
     <definedName name="GEARS.mass">'Gearbox Tests'!$C$7</definedName>
@@ -30,7 +31,7 @@
     <definedName name="HOUSING.moments_of_inertia_centroidal.2">'Gearbox Tests'!$C$19</definedName>
     <definedName name="HOUSING.products_of_inertia_centroidal">'Gearbox Tests'!$C$22:$C$24</definedName>
     <definedName name="missing_ref">'Other Tests'!#REF!</definedName>
-    <definedName name="Range_that_s_too_large">'Other Tests'!$A$7:$H$9</definedName>
+    <definedName name="Range_that_s_too_large">'Other Tests'!$A$23:$H$25</definedName>
     <definedName name="SHAFT_CENTERS">'Gearbox Tests'!$C$10</definedName>
     <definedName name="SHAFT_CENTERS.distance">'Gearbox Tests'!$C$10</definedName>
     <definedName name="SHAFT_CENTERS.point_1.x">'Gearbox Tests'!$C$11</definedName>
@@ -38,11 +39,16 @@
     <definedName name="SHAFT_CENTERS.point_1.z">'Gearbox Tests'!$C$13</definedName>
     <definedName name="SURFACE_PAINTED.area">'Gearbox Tests'!$C$4</definedName>
     <definedName name="Test_Date">'Other Tests'!$B$5</definedName>
+    <definedName name="Test_Empty_List">'Other Tests'!$B$10:$D$10</definedName>
+    <definedName name="Test_Empty_Matrix">'Other Tests'!$B$11:$D$13</definedName>
     <definedName name="Test_Float">'Other Tests'!$B$4</definedName>
     <definedName name="Test_Int">'Other Tests'!$B$2</definedName>
+    <definedName name="Test_List">'Other Tests'!$B$7:$D$7</definedName>
+    <definedName name="Test_Matrix">'Other Tests'!$B$7:$D$9</definedName>
     <definedName name="Test_Range_1">'Gearbox Tests'!$A$1</definedName>
     <definedName name="Test_Str">'Other Tests'!$B$3</definedName>
-    <definedName name="too_small_range">'Other Tests'!$A$12:$B$12</definedName>
+    <definedName name="Test_Vector">'Other Tests'!$B$14:$B$16</definedName>
+    <definedName name="too_small_range">'Other Tests'!$A$28:$B$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Because spreadsheets need dark mode too!</t>
   </si>
@@ -147,6 +153,24 @@
   </si>
   <si>
     <t>Range that's too small</t>
+  </si>
+  <si>
+    <t>Test List</t>
+  </si>
+  <si>
+    <t>Test Empty Range, Single Cell</t>
+  </si>
+  <si>
+    <t>Test Empty List</t>
+  </si>
+  <si>
+    <t>Test Matrix</t>
+  </si>
+  <si>
+    <t>Test Empty Matrix</t>
+  </si>
+  <si>
+    <t>Test Vector</t>
   </si>
 </sst>
 </file>
@@ -177,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +232,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,11 +259,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -231,6 +288,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,26 +610,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F223915-F445-4D32-BCC2-8C7735AB3DA4}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B16" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
-    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -572,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -580,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -588,7 +653,7 @@
         <v>3.1415190000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -596,53 +661,145 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="N7" s="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="N23" s="1">
         <v>3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tests/xl/datum_excel_tests.xlsx
+++ b/tests/xl/datum_excel_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\datum\tests\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D475FCF8-27E2-4E6B-A1C6-E22C9A3CCAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F3F49-D260-4855-BCC4-7F57F5BFDF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="17440" windowHeight="12410" xr2:uid="{4E3D2296-B548-4056-9C4B-8EF4E130383B}"/>
   </bookViews>
@@ -30,8 +30,9 @@
     <definedName name="HOUSING.moments_of_inertia_centroidal.1">'Gearbox Tests'!$C$18</definedName>
     <definedName name="HOUSING.moments_of_inertia_centroidal.2">'Gearbox Tests'!$C$19</definedName>
     <definedName name="HOUSING.products_of_inertia_centroidal">'Gearbox Tests'!$C$22:$C$24</definedName>
+    <definedName name="List_Test">'Other Tests'!$B$20:$D$20</definedName>
+    <definedName name="Matrix_Test">'Other Tests'!$B$21:$D$23</definedName>
     <definedName name="missing_ref">'Other Tests'!#REF!</definedName>
-    <definedName name="Range_that_s_too_large">'Other Tests'!$A$23:$H$25</definedName>
     <definedName name="SHAFT_CENTERS">'Gearbox Tests'!$C$10</definedName>
     <definedName name="SHAFT_CENTERS.distance">'Gearbox Tests'!$C$10</definedName>
     <definedName name="SHAFT_CENTERS.point_1.x">'Gearbox Tests'!$C$11</definedName>
@@ -46,8 +47,10 @@
     <definedName name="Test_List">'Other Tests'!$B$7:$D$7</definedName>
     <definedName name="Test_Matrix">'Other Tests'!$B$7:$D$9</definedName>
     <definedName name="Test_Range_1">'Gearbox Tests'!$A$1</definedName>
+    <definedName name="Test_Single_Value">'Other Tests'!$B$19</definedName>
     <definedName name="Test_Str">'Other Tests'!$B$3</definedName>
     <definedName name="Test_Vector">'Other Tests'!$B$14:$B$16</definedName>
+    <definedName name="too_large_range">'Other Tests'!$A$24:$C$25</definedName>
     <definedName name="too_small_range">'Other Tests'!$A$28:$B$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Because spreadsheets need dark mode too!</t>
   </si>
@@ -171,6 +174,15 @@
   </si>
   <si>
     <t>Test Vector</t>
+  </si>
+  <si>
+    <t>Test Single Value</t>
+  </si>
+  <si>
+    <t>List Test</t>
+  </si>
+  <si>
+    <t>Matrix Test</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +262,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,11 +304,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -296,6 +339,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F223915-F445-4D32-BCC2-8C7735AB3DA4}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B14:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,45 +798,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="N23" s="1">
-        <v>3</v>
-      </c>
-      <c r="O23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
